--- a/Analyzed/try8/data_2021.xlsx
+++ b/Analyzed/try8/data_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>57.81</v>
       </c>
       <c r="J2">
-        <v>523.8000000000001</v>
+        <v>623.57889</v>
       </c>
       <c r="K2">
         <v>2065.898</v>
       </c>
       <c r="L2">
-        <v>517.4399999999999</v>
+        <v>664.95695</v>
       </c>
       <c r="M2">
         <v>67.94187543224474</v>
@@ -558,37 +583,37 @@
         <v>-118.49</v>
       </c>
       <c r="P2">
-        <v>514.1848624308235</v>
+        <v>673.8088459918021</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>6</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -597,9 +622,24 @@
         <v>3</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>1</v>
       </c>
     </row>
@@ -634,13 +674,13 @@
         <v>53.26000000000001</v>
       </c>
       <c r="J3">
-        <v>495.8</v>
+        <v>639.12369</v>
       </c>
       <c r="K3">
         <v>1125.852</v>
       </c>
       <c r="L3">
-        <v>490.56</v>
+        <v>712.4186999999999</v>
       </c>
       <c r="M3">
         <v>58.76227941177689</v>
@@ -652,48 +692,63 @@
         <v>-177.41</v>
       </c>
       <c r="P3">
-        <v>414.9635912988606</v>
+        <v>541.9163045511776</v>
       </c>
       <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
         <v>4</v>
       </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>6</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
     </row>
@@ -728,13 +783,13 @@
         <v>49.09</v>
       </c>
       <c r="J4">
-        <v>505.2</v>
+        <v>720.51926</v>
       </c>
       <c r="K4">
         <v>1120.112</v>
       </c>
       <c r="L4">
-        <v>509.25</v>
+        <v>788.5944499999999</v>
       </c>
       <c r="M4">
         <v>59.69404479865618</v>
@@ -746,49 +801,64 @@
         <v>-165.97</v>
       </c>
       <c r="P4">
-        <v>437.4980226085787</v>
+        <v>573.7241029262314</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>9</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>55.79</v>
       </c>
       <c r="J5">
-        <v>510.4</v>
+        <v>647.10564</v>
       </c>
       <c r="K5">
         <v>1703.601</v>
       </c>
       <c r="L5">
-        <v>483.21</v>
+        <v>636.86665</v>
       </c>
       <c r="M5">
         <v>70.94271435550357</v>
@@ -840,16 +910,16 @@
         <v>-172.81</v>
       </c>
       <c r="P5">
-        <v>425.6413900949444</v>
+        <v>555.0167544777644</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -858,31 +928,46 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>43.74</v>
       </c>
       <c r="J6">
-        <v>474.8</v>
+        <v>584.3524</v>
       </c>
       <c r="K6">
         <v>2015.537</v>
       </c>
       <c r="L6">
-        <v>461.37</v>
+        <v>653.65755</v>
       </c>
       <c r="M6">
         <v>77.23486451455979</v>
@@ -934,31 +1019,31 @@
         <v>-155.56</v>
       </c>
       <c r="P6">
-        <v>392.0286545327149</v>
+        <v>510.7377636244889</v>
       </c>
       <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
       <c r="T6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6">
         <v>3</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>3</v>
@@ -967,16 +1052,31 @@
         <v>3</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>3</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD6">
         <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>49.97</v>
       </c>
       <c r="J7">
-        <v>553.6</v>
+        <v>764.64922</v>
       </c>
       <c r="K7">
         <v>1438.791</v>
       </c>
       <c r="L7">
-        <v>502.95</v>
+        <v>676.52235</v>
       </c>
       <c r="M7">
         <v>64.39339125132011</v>
@@ -1028,31 +1128,31 @@
         <v>-236.39</v>
       </c>
       <c r="P7">
-        <v>347.5269313423665</v>
+        <v>450.5057207755931</v>
       </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
       <c r="V7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>3</v>
@@ -1061,16 +1161,31 @@
         <v>3</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>47.2</v>
       </c>
       <c r="J8">
-        <v>519.4</v>
+        <v>658.45055</v>
       </c>
       <c r="K8">
         <v>1565.958</v>
       </c>
       <c r="L8">
-        <v>487.83</v>
+        <v>630.20965</v>
       </c>
       <c r="M8">
         <v>75.4536226107664</v>
@@ -1122,49 +1237,64 @@
         <v>-190.4</v>
       </c>
       <c r="P8">
-        <v>372.9428749285585</v>
+        <v>485.7392800051986</v>
       </c>
       <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
         <v>7</v>
       </c>
-      <c r="R8">
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
         <v>4</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>3</v>
-      </c>
       <c r="V8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>40.44</v>
       </c>
       <c r="J9">
-        <v>494.8</v>
+        <v>654.1643</v>
       </c>
       <c r="K9">
         <v>1437.886</v>
       </c>
       <c r="L9">
-        <v>475.23</v>
+        <v>759.45205</v>
       </c>
       <c r="M9">
         <v>69.51938473286071</v>
@@ -1216,37 +1346,37 @@
         <v>-261.86</v>
       </c>
       <c r="P9">
-        <v>357.8707799378375</v>
+        <v>467.8771083604114</v>
       </c>
       <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
       <c r="T9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>6</v>
       </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
       <c r="X9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1255,10 +1385,25 @@
         <v>6</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
         <v>5</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>31.83</v>
       </c>
       <c r="J10">
-        <v>446.8</v>
+        <v>485.90708</v>
       </c>
       <c r="K10">
         <v>1758.489</v>
       </c>
       <c r="L10">
-        <v>429.03</v>
+        <v>531.5597</v>
       </c>
       <c r="M10">
         <v>82.384531885217</v>
@@ -1310,37 +1455,37 @@
         <v>-183.61</v>
       </c>
       <c r="P10">
-        <v>291.1933487777349</v>
+        <v>377.623127339469</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>6</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>7</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -1349,9 +1494,24 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
         <v>1</v>
       </c>
     </row>
@@ -1386,13 +1546,13 @@
         <v>29.29</v>
       </c>
       <c r="J11">
-        <v>451.2</v>
+        <v>460.11592</v>
       </c>
       <c r="K11">
         <v>1378.368</v>
       </c>
       <c r="L11">
-        <v>439.74</v>
+        <v>452.515</v>
       </c>
       <c r="M11">
         <v>98.6521295117</v>
@@ -1404,49 +1564,64 @@
         <v>-197</v>
       </c>
       <c r="P11">
-        <v>385.1506691762133</v>
+        <v>502.687715071088</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>9</v>
       </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="X11">
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
         <v>4</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
       <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
